--- a/Xray_Performance_Analysis.xlsx
+++ b/Xray_Performance_Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshaik\Desktop\Active\Misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Meeravali_Workspace\Cypress\Cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5A8DEB-E112-4CAB-AD78-6BEAFAF29A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195F19E1-05A0-4634-85D3-FE79F7B1BA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Test Id</t>
   </si>
@@ -241,6 +241,9 @@
 - Final report creation and review
     - Check repository count and test cases count
 - Sending report to stakeholder</t>
+  </si>
+  <si>
+    <t>TestFile</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7DFF57-C1D0-4AA1-9C09-1BFFA02EE90C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,6 +1130,11 @@
         <v>58</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Xray_Performance_Analysis.xlsx
+++ b/Xray_Performance_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Meeravali_Workspace\Cypress\Cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195F19E1-05A0-4634-85D3-FE79F7B1BA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB721DD-3F95-42B3-A637-0FCB28F344CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,7 +243,7 @@
 - Sending report to stakeholder</t>
   </si>
   <si>
-    <t>TestFile</t>
+    <t>TestFile me one two three</t>
   </si>
 </sst>
 </file>
